--- a/biology/Botanique/Echinocactus/Echinocactus.xlsx
+++ b/biology/Botanique/Echinocactus/Echinocactus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Echinocactus est un genre de la famille des cactus composé de 6 espèces.
 Le nom vient du grec ancien echino "épineux".
@@ -520,16 +532,55 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Espèces
-Echinocactus grusonii Hild. - golden barrel cactus
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Echinocactus grusonii Hild. - golden barrel cactus
 Echinocactus horizonthalonius Lem. de petite taille (15 à 20 cm maxi)
 Echinocactus platyacanthus - giant barrel cactus, large barrel cactus
 Echinocactus polycephalus Engl. et Bigel. - many-headed barrel cactus, cotton top cactus, harem cactus, woolly-headed barrel cactus
 Echinocactus texensis Hopff. - horse-crippler cactus, candy cactus, devil's-head cactus, devil's pincushion
 Echinocactus wislizeni - Fishhook barrel cactus, Arizona Barrel Cactus, Candy Barrel Cactus, Southwestern Barrel Cactus
-[1]
-Synonymes
-Les genres suivants sont considérées comme synonymes d'Echinocactus:
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Echinocactus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Echinocactus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les genres suivants sont considérées comme synonymes d'Echinocactus:
 Brittonrosea Speg.
 Echinofossulocactus Lawr.
 Homalocephala Britton &amp; Rose
